--- a/dtpu_configurations/only_integer64/60mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer64/60mhz/graph.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D0E8D-DB21-4F7B-A51E-1CA7914CB25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB257B-1DF4-4F90-9019-D76926629A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>3x3</t>
   </si>
@@ -26,39 +26,6 @@
   </si>
   <si>
     <t>5x5</t>
-  </si>
-  <si>
-    <t>6x6</t>
-  </si>
-  <si>
-    <t>7x7</t>
-  </si>
-  <si>
-    <t>8x8</t>
-  </si>
-  <si>
-    <t>10x10</t>
-  </si>
-  <si>
-    <t>12x12</t>
-  </si>
-  <si>
-    <t>14x14</t>
-  </si>
-  <si>
-    <t>16x16</t>
-  </si>
-  <si>
-    <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>Clocks</t>
@@ -258,7 +225,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -267,39 +234,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,46 +245,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>22.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.45</c:v>
+                  <c:v>50.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.760000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89.09</c:v>
+                  <c:v>82.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,7 +293,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -401,39 +302,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,40 +319,7 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,7 +361,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -535,39 +370,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -579,46 +381,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>14.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>19.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.79</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.99</c:v>
+                  <c:v>24.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,7 +429,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -669,39 +438,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,45 +449,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>57.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -794,7 +497,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -803,39 +506,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -847,46 +517,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>57.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>72.73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>95.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +565,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -937,39 +574,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -987,39 +591,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1064,7 +635,7 @@
             <c:strRef>
               <c:f>utilization!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1073,39 +644,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1124,39 +662,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +955,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1459,39 +964,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,46 +975,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>0.34902036190032959</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,7 +1023,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1593,39 +1032,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1637,45 +1043,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>1.5648594126105309E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2009,7 +1382,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2018,39 +1391,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2062,46 +1402,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.05</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +1448,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2150,39 +1457,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2201,39 +1475,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +1514,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2282,39 +1523,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2333,39 +1541,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,7 +1580,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2414,39 +1589,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2465,39 +1607,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +1646,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2546,39 +1655,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2596,39 +1672,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2669,7 +1712,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2678,39 +1721,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2728,39 +1738,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2803,7 +1780,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2812,39 +1789,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2862,39 +1806,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2937,7 +1848,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2946,39 +1857,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2996,39 +1874,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3071,7 +1916,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3080,39 +1925,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3130,39 +1942,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3205,7 +1984,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3214,39 +1993,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3258,46 +2004,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,35 +4349,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -5672,19 +4385,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.5</v>
+        <v>22.53</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>14.88</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>57.86</v>
       </c>
       <c r="F2">
-        <v>2.73</v>
+        <v>57.27</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5698,19 +4411,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.45</v>
+        <v>50.75</v>
       </c>
       <c r="C3">
         <v>5.34</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>19.86</v>
       </c>
       <c r="E3">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F3">
-        <v>5.45</v>
+        <v>72.73</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5724,19 +4437,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.14</v>
+        <v>82.06</v>
       </c>
       <c r="C4">
-        <v>5.41</v>
+        <v>6.08</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>24.88</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
-        <v>9.09</v>
+        <v>95.45</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -5745,292 +4458,8 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>18.77</v>
-      </c>
-      <c r="C5">
-        <v>5.53</v>
-      </c>
-      <c r="D5">
-        <v>12.57</v>
-      </c>
-      <c r="E5">
-        <v>52.14</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19.03</v>
-      </c>
-      <c r="C6">
-        <v>5.62</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>52.14</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>20.02</v>
-      </c>
-      <c r="C7">
-        <v>5.71</v>
-      </c>
-      <c r="D7">
-        <v>13.82</v>
-      </c>
-      <c r="E7">
-        <v>57.86</v>
-      </c>
-      <c r="F7">
-        <v>25.45</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>21.8</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>23.94</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
-      </c>
-    </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>25.91</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
-      </c>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>31.5</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>43.22</v>
-      </c>
-      <c r="C12">
-        <v>6.62</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>57.05</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.79</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>71.760000000000005</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>89.09</v>
-      </c>
-      <c r="C15">
-        <v>7.17</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,20 +4470,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6062,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2.58</v>
+      </c>
+      <c r="C2">
         <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6073,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6084,132 +4513,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2.08</v>
-      </c>
-      <c r="C6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.28</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.86</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.38</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.33</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.27</v>
-      </c>
-      <c r="C13">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.34902036190032959</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.5648594126105309E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.3</v>
-      </c>
-      <c r="C15">
-        <v>0.01</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6219,44 +4531,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="B4" sqref="B4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6264,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -6291,7 +4603,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6299,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -6326,7 +4638,7 @@
         <v>0.13</v>
       </c>
       <c r="K3">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6334,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -6361,392 +4673,7 @@
         <v>0.13</v>
       </c>
       <c r="K4">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.03</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.03</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.03</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.03</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.04</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
         <v>1.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.04</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.04</v>
-      </c>
-      <c r="C11">
-        <v>0.02</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.04</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.05</v>
-      </c>
-      <c r="C13">
-        <v>0.03</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.05</v>
-      </c>
-      <c r="C14">
-        <v>0.03</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0.05</v>
-      </c>
-      <c r="C15">
-        <v>0.03</v>
-      </c>
-      <c r="D15">
-        <v>0.02</v>
-      </c>
-      <c r="E15">
-        <v>0.02</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/dtpu_configurations/only_integer64/60mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer64/60mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB257B-1DF4-4F90-9019-D76926629A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8720394-405F-4BE1-9AEF-5EEC5ECC639E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>3x3</t>
   </si>
@@ -75,11 +85,18 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +139,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1399,16 +1421,16 @@
             <c:numRef>
               <c:f>power!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>3.0861703678965569E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>4.4250726699829102E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>5.5323231965303421E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,16 +1487,16 @@
             <c:numRef>
               <c:f>power!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.595255546271801E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.996956393122673E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>2.4776769801974297E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,16 +1553,16 @@
             <c:numRef>
               <c:f>power!$D$2:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0829049162566662E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>1.0967081412672997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>1.2540814466774464E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,16 +1619,16 @@
             <c:numRef>
               <c:f>power!$E$2:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>6.5893041901290417E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>5.6261313147842884E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>5.1292469725012779E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1663,16 +1685,16 @@
             <c:numRef>
               <c:f>power!$F$2:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9028583317995071E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.673708438873291E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.8208810389041901E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,16 +1751,16 @@
             <c:numRef>
               <c:f>power!$G$2:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.0682686008512974E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.5561360633000731E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.0471133282408118E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,16 +1819,16 @@
             <c:numRef>
               <c:f>power!$H$2:$H$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.1411765590310097E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.1411765590310097E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1411765590310097E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,16 +1887,16 @@
             <c:numRef>
               <c:f>power!$I$2:$I$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2593232393264771</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2593232393264771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>1.2593232393264771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,16 +1955,16 @@
             <c:numRef>
               <c:f>power!$J$2:$J$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>0.1278250515460968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12802089750766754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.12825183570384979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,16 +2023,16 @@
             <c:numRef>
               <c:f>power!$K$2:$K$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.45</c:v>
+                  <c:v>1.4836266040802002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.46</c:v>
+                  <c:v>1.5075998306274414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.47</c:v>
+                  <c:v>1.5357499122619629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +2123,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4351,7 +4373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
@@ -4531,15 +4553,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -4570,114 +4595,298 @@
       <c r="K1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="5">
+        <v>3.0861703678965569E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.595255546271801E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0829049162566662E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.5893041901290417E-3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.9028583317995071E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2.0682686008512974E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.1411765590310097E-3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.2593232393264771</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.1278250515460968</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.4836266040802002</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>9.6478313207626343E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="4">
+        <f>B2/L2</f>
+        <v>0.31988228911661815</v>
+      </c>
+      <c r="P2" s="4">
+        <f>C2/L2</f>
+        <v>0.16534861496165756</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>D2/L2</f>
+        <v>0.11224335088925098</v>
+      </c>
+      <c r="R2" s="4">
+        <f>E2/L2</f>
+        <v>6.8298293896873141E-2</v>
+      </c>
+      <c r="S2" s="4">
+        <f>F2/L2</f>
+        <v>0.30088195318593569</v>
+      </c>
+      <c r="T2" s="4">
+        <f>G2/L2</f>
+        <v>2.1437653002911398E-2</v>
+      </c>
+      <c r="U2" s="4">
+        <f>H2/L2</f>
+        <v>1.1828322045547566E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.45</v>
+      <c r="X2" s="3">
+        <f>I2/K2</f>
+        <v>0.84881413953021967</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>J2/K2</f>
+        <v>8.6157157868804957E-2</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>L2/K2</f>
+        <v>6.5028702600975347E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.04</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.46</v>
+      <c r="B3" s="5">
+        <v>4.4250726699829102E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.996956393122673E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0967081412672997E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.6261313147842884E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.673708438873291E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.5561360633000731E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.1411765590310097E-3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.2593232393264771</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.12802089750766754</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.5075998306274414</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" si="0">K3-J3-I3</f>
+        <v>0.12025569379329681</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O4" si="1">B3/L3</f>
+        <v>0.36797198788682789</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" ref="P3:P4" si="2">C3/L3</f>
+        <v>0.16605919687721143</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q4" si="3">D3/L3</f>
+        <v>9.1198022037309256E-2</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" ref="R3:R4" si="4">E3/L3</f>
+        <v>4.678473956048055E-2</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S4" si="5">F3/L3</f>
+        <v>0.30549143437548132</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T4" si="6">G3/L3</f>
+        <v>1.2940227728217671E-2</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U4" si="7">H3/L3</f>
+        <v>9.4895844266013468E-3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X4" si="8">I3/K3</f>
+        <v>0.8353166495132629</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" ref="Y3:Y4" si="9">J3/K3</f>
+        <v>8.4917028316716561E-2</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z4" si="10">L3/K3</f>
+        <v>7.9766322170020484E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.06</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.47</v>
+      <c r="B4" s="5">
+        <v>5.5323231965303421E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.4776769801974297E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.2540814466774464E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.1292469725012779E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.8208810389041901E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.0471133282408118E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.1411765590310097E-3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.2593232393264771</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.12825183570384979</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1.5357499122619629</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.14817483723163605</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37336455365102733</v>
+      </c>
+      <c r="P4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.16721307250867246</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4635250499178138E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4616180913922129E-2</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" si="5"/>
+        <v>0.32535085774164824</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="6"/>
+        <v>7.0667418827928229E-3</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="7"/>
+        <v>7.7015543283307413E-3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="8"/>
+        <v>0.82000541186530507</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="9"/>
+        <v>8.3510885906515384E-2</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="10"/>
+        <v>9.6483702228179521E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>